--- a/game_excel/shopitem.xlsx
+++ b/game_excel/shopitem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="327">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,6 +1148,30 @@
   </si>
   <si>
     <t>3,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征振金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征乌路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,6 +1254,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,13 +1554,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7263,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" ht="12.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>316</v>
       </c>
@@ -7318,6 +7345,64 @@
         <v>-1</v>
       </c>
       <c r="I200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B201" s="1">
+        <v>6019</v>
+      </c>
+      <c r="C201" s="1">
+        <v>6</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B202" s="1">
+        <v>6020</v>
+      </c>
+      <c r="C202" s="1">
+        <v>6</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H202" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I202" s="1">
         <v>0</v>
       </c>
     </row>
